--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H2">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I2">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J2">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.33695966666667</v>
+        <v>55.848606</v>
       </c>
       <c r="N2">
-        <v>139.010879</v>
+        <v>167.545818</v>
       </c>
       <c r="O2">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077237</v>
       </c>
       <c r="P2">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077236</v>
       </c>
       <c r="Q2">
-        <v>872.292925920629</v>
+        <v>1183.208548099798</v>
       </c>
       <c r="R2">
-        <v>7850.636333285662</v>
+        <v>10648.87693289818</v>
       </c>
       <c r="S2">
-        <v>0.01372891155925209</v>
+        <v>0.02036471254921494</v>
       </c>
       <c r="T2">
-        <v>0.01372891155925208</v>
+        <v>0.02036471254921494</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H3">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I3">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J3">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>253.528801</v>
       </c>
       <c r="O3">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="P3">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="Q3">
-        <v>1590.892606537931</v>
+        <v>1790.420364492133</v>
       </c>
       <c r="R3">
-        <v>14318.03345884138</v>
+        <v>16113.7832804292</v>
       </c>
       <c r="S3">
-        <v>0.02503886394857068</v>
+        <v>0.03081569696542422</v>
       </c>
       <c r="T3">
-        <v>0.02503886394857067</v>
+        <v>0.03081569696542422</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H4">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I4">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J4">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>29.06683666666667</v>
+        <v>33.195992</v>
       </c>
       <c r="N4">
-        <v>87.20051000000001</v>
+        <v>99.58797600000001</v>
       </c>
       <c r="O4">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="P4">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="Q4">
-        <v>547.1829870931979</v>
+        <v>703.2902754466694</v>
       </c>
       <c r="R4">
-        <v>4924.646883838781</v>
+        <v>6329.612479020025</v>
       </c>
       <c r="S4">
-        <v>0.008612046037862095</v>
+        <v>0.01210463220632649</v>
       </c>
       <c r="T4">
-        <v>0.008612046037862092</v>
+        <v>0.01210463220632649</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H5">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I5">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J5">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>72.52790466666666</v>
+        <v>66.82284533333335</v>
       </c>
       <c r="N5">
-        <v>217.583714</v>
+        <v>200.468536</v>
       </c>
       <c r="O5">
-        <v>0.3120267536390091</v>
+        <v>0.277991792868529</v>
       </c>
       <c r="P5">
-        <v>0.3120267536390091</v>
+        <v>0.2779917928685289</v>
       </c>
       <c r="Q5">
-        <v>1365.337273478699</v>
+        <v>1415.708778957719</v>
       </c>
       <c r="R5">
-        <v>12288.03546130829</v>
+        <v>12741.37901061947</v>
       </c>
       <c r="S5">
-        <v>0.02148887617809826</v>
+        <v>0.02436637428217963</v>
       </c>
       <c r="T5">
-        <v>0.02148887617809825</v>
+        <v>0.02436637428217963</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>365.462677</v>
       </c>
       <c r="I6">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J6">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.33695966666667</v>
+        <v>55.848606</v>
       </c>
       <c r="N6">
-        <v>139.010879</v>
+        <v>167.545818</v>
       </c>
       <c r="O6">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077237</v>
       </c>
       <c r="P6">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077236</v>
       </c>
       <c r="Q6">
-        <v>5644.80977460701</v>
+        <v>6803.527018492754</v>
       </c>
       <c r="R6">
-        <v>50803.28797146308</v>
+        <v>61231.74316643479</v>
       </c>
       <c r="S6">
-        <v>0.08884296990324657</v>
+        <v>0.1170984373591055</v>
       </c>
       <c r="T6">
-        <v>0.08884296990324653</v>
+        <v>0.1170984373591055</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>365.462677</v>
       </c>
       <c r="I7">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J7">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>253.528801</v>
       </c>
       <c r="O7">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="P7">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="Q7">
         <v>10295.03492334003</v>
@@ -883,10 +883,10 @@
         <v>92655.31431006029</v>
       </c>
       <c r="S7">
-        <v>0.1620322941548279</v>
+        <v>0.1771922855312785</v>
       </c>
       <c r="T7">
-        <v>0.1620322941548278</v>
+        <v>0.1771922855312785</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>365.462677</v>
       </c>
       <c r="I8">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J8">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.06683666666667</v>
+        <v>33.195992</v>
       </c>
       <c r="N8">
-        <v>87.20051000000001</v>
+        <v>99.58797600000001</v>
       </c>
       <c r="O8">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="P8">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="Q8">
-        <v>3540.947980040587</v>
+        <v>4043.965367330195</v>
       </c>
       <c r="R8">
-        <v>31868.53182036528</v>
+        <v>36395.68830597176</v>
       </c>
       <c r="S8">
-        <v>0.05573054671122361</v>
+        <v>0.06960243179185829</v>
       </c>
       <c r="T8">
-        <v>0.05573054671122359</v>
+        <v>0.06960243179185828</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>365.462677</v>
       </c>
       <c r="I9">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J9">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>72.52790466666666</v>
+        <v>66.82284533333335</v>
       </c>
       <c r="N9">
-        <v>217.583714</v>
+        <v>200.468536</v>
       </c>
       <c r="O9">
-        <v>0.3120267536390091</v>
+        <v>0.277991792868529</v>
       </c>
       <c r="P9">
-        <v>0.3120267536390091</v>
+        <v>0.2779917928685289</v>
       </c>
       <c r="Q9">
-        <v>8835.414065560264</v>
+        <v>8140.418646758989</v>
       </c>
       <c r="R9">
-        <v>79518.72659004238</v>
+        <v>73263.76782083089</v>
       </c>
       <c r="S9">
-        <v>0.1390595001873098</v>
+        <v>0.1401082556728906</v>
       </c>
       <c r="T9">
-        <v>0.1390595001873098</v>
+        <v>0.1401082556728905</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H10">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I10">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J10">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.33695966666667</v>
+        <v>55.848606</v>
       </c>
       <c r="N10">
-        <v>139.010879</v>
+        <v>167.545818</v>
       </c>
       <c r="O10">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077237</v>
       </c>
       <c r="P10">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077236</v>
       </c>
       <c r="Q10">
-        <v>2086.398976268656</v>
+        <v>2077.969266504494</v>
       </c>
       <c r="R10">
-        <v>18777.59078641791</v>
+        <v>18701.72339854045</v>
       </c>
       <c r="S10">
-        <v>0.03283757803294719</v>
+        <v>0.03576482511593364</v>
       </c>
       <c r="T10">
-        <v>0.03283757803294717</v>
+        <v>0.03576482511593364</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H11">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I11">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J11">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>253.528801</v>
       </c>
       <c r="O11">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="P11">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="Q11">
-        <v>3805.185857871023</v>
+        <v>3144.36410851946</v>
       </c>
       <c r="R11">
-        <v>34246.6727208392</v>
+        <v>28299.27697667514</v>
       </c>
       <c r="S11">
-        <v>0.05988935431763608</v>
+        <v>0.05411900659685425</v>
       </c>
       <c r="T11">
-        <v>0.05988935431763607</v>
+        <v>0.05411900659685426</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H12">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I12">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J12">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.06683666666667</v>
+        <v>33.195992</v>
       </c>
       <c r="N12">
-        <v>87.20051000000001</v>
+        <v>99.58797600000001</v>
       </c>
       <c r="O12">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="P12">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="Q12">
-        <v>1308.782852844955</v>
+        <v>1235.129327079875</v>
       </c>
       <c r="R12">
-        <v>11779.04567560459</v>
+        <v>11116.16394371887</v>
       </c>
       <c r="S12">
-        <v>0.02059877307615465</v>
+        <v>0.02125834346572469</v>
       </c>
       <c r="T12">
-        <v>0.02059877307615464</v>
+        <v>0.02125834346572469</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H13">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I13">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J13">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>72.52790466666666</v>
+        <v>66.82284533333335</v>
       </c>
       <c r="N13">
-        <v>217.583714</v>
+        <v>200.468536</v>
       </c>
       <c r="O13">
-        <v>0.3120267536390091</v>
+        <v>0.277991792868529</v>
       </c>
       <c r="P13">
-        <v>0.3120267536390091</v>
+        <v>0.2779917928685289</v>
       </c>
       <c r="Q13">
-        <v>3265.690005041491</v>
+        <v>2486.289790349466</v>
       </c>
       <c r="R13">
-        <v>29391.21004537342</v>
+        <v>22376.60811314519</v>
       </c>
       <c r="S13">
-        <v>0.05139829514475239</v>
+        <v>0.04279260572942053</v>
       </c>
       <c r="T13">
-        <v>0.05139829514475237</v>
+        <v>0.04279260572942053</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H14">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I14">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J14">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.33695966666667</v>
+        <v>55.848606</v>
       </c>
       <c r="N14">
-        <v>139.010879</v>
+        <v>167.545818</v>
       </c>
       <c r="O14">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077237</v>
       </c>
       <c r="P14">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077236</v>
       </c>
       <c r="Q14">
-        <v>4062.527371977072</v>
+        <v>3434.318936893614</v>
       </c>
       <c r="R14">
-        <v>36562.74634779364</v>
+        <v>30908.87043204252</v>
       </c>
       <c r="S14">
-        <v>0.06393962089976753</v>
+        <v>0.05910954418346958</v>
       </c>
       <c r="T14">
-        <v>0.0639396208997675</v>
+        <v>0.05910954418346957</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H15">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I15">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J15">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>253.528801</v>
       </c>
       <c r="O15">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="P15">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="Q15">
-        <v>7409.259628140528</v>
+        <v>5196.780037340189</v>
       </c>
       <c r="R15">
-        <v>66683.33665326475</v>
+        <v>46771.0203360617</v>
       </c>
       <c r="S15">
-        <v>0.1166134301122763</v>
+        <v>0.08944402219870129</v>
       </c>
       <c r="T15">
-        <v>0.1166134301122763</v>
+        <v>0.08944402219870129</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H16">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I16">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J16">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>29.06683666666667</v>
+        <v>33.195992</v>
       </c>
       <c r="N16">
-        <v>87.20051000000001</v>
+        <v>99.58797600000001</v>
       </c>
       <c r="O16">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="P16">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="Q16">
-        <v>2548.393775176117</v>
+        <v>2041.333385377048</v>
       </c>
       <c r="R16">
-        <v>22935.54397658505</v>
+        <v>18372.00046839343</v>
       </c>
       <c r="S16">
-        <v>0.04010885760722647</v>
+        <v>0.03513426916757963</v>
       </c>
       <c r="T16">
-        <v>0.04010885760722645</v>
+        <v>0.03513426916757963</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H17">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I17">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J17">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>72.52790466666666</v>
+        <v>66.82284533333335</v>
       </c>
       <c r="N17">
-        <v>217.583714</v>
+        <v>200.468536</v>
       </c>
       <c r="O17">
-        <v>0.3120267536390091</v>
+        <v>0.277991792868529</v>
       </c>
       <c r="P17">
-        <v>0.3120267536390091</v>
+        <v>0.2779917928685289</v>
       </c>
       <c r="Q17">
-        <v>6358.781414664896</v>
+        <v>4109.161885712595</v>
       </c>
       <c r="R17">
-        <v>57229.03273198407</v>
+        <v>36982.45697141335</v>
       </c>
       <c r="S17">
-        <v>0.1000800821288486</v>
+        <v>0.07072455718403825</v>
       </c>
       <c r="T17">
-        <v>0.1000800821288486</v>
+        <v>0.07072455718403824</v>
       </c>
     </row>
   </sheetData>
